--- a/Agricultura/Precios ODEPA 2010-2022/Homologa_Productos.xlsx
+++ b/Agricultura/Precios ODEPA 2010-2022/Homologa_Productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\Precios ODEPA 2010-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B714047D-ED13-42C3-A7EC-5DCFE4AA5351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07176FAB-B8D0-48A5-B557-7F631B8252AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{94BF0680-554F-4A5C-8CC3-9207232BB1F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="207">
   <si>
     <t>Tipo producto</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>Pan amasado</t>
+  </si>
+  <si>
+    <t>Aceite Maravilla</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E555268-3C1D-4343-9C2D-2E5D87D0626A}">
   <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1117,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>

--- a/Agricultura/Precios ODEPA 2010-2022/Homologa_Productos.xlsx
+++ b/Agricultura/Precios ODEPA 2010-2022/Homologa_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\Precios ODEPA 2010-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07176FAB-B8D0-48A5-B557-7F631B8252AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B54F97-6F96-4B99-8D27-157E3DB7A58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{94BF0680-554F-4A5C-8CC3-9207232BB1F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="211">
   <si>
     <t>Tipo producto</t>
   </si>
@@ -657,6 +657,18 @@
   </si>
   <si>
     <t>Aceite Maravilla</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal</t>
+  </si>
+  <si>
+    <t>Arroz grano Ancho grado 1</t>
+  </si>
+  <si>
+    <t>Arroz grano Ancho grado 2</t>
+  </si>
+  <si>
+    <t>Arvejas Verdes Partidas</t>
   </si>
 </sst>
 </file>
@@ -730,8 +742,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D34ABF6B-346B-43C1-8CB5-703BAE45A15D}" name="Homologa_Productos" displayName="Homologa_Productos" ref="A1:F272" totalsRowShown="0">
-  <autoFilter ref="A1:F272" xr:uid="{D34ABF6B-346B-43C1-8CB5-703BAE45A15D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D34ABF6B-346B-43C1-8CB5-703BAE45A15D}" name="Homologa_Productos" displayName="Homologa_Productos" ref="A1:F274" totalsRowShown="0">
+  <autoFilter ref="A1:F274" xr:uid="{D34ABF6B-346B-43C1-8CB5-703BAE45A15D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A5AB35E2-B788-435E-B95A-6024A89F4067}" name="Tipo producto"/>
     <tableColumn id="2" xr3:uid="{B5804425-8837-4C49-93F7-105CCDA2E614}" name="Producto"/>
@@ -1061,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E555268-3C1D-4343-9C2D-2E5D87D0626A}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1202,13 +1214,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>2010</v>
@@ -1222,19 +1234,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>2010</v>
       </c>
       <c r="F8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1242,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="F9">
         <v>2024</v>
@@ -1262,19 +1274,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F10">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1282,16 +1294,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="F11">
         <v>2024</v>
@@ -1305,13 +1317,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E12">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F12">
         <v>2024</v>
@@ -1322,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -1342,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F14">
         <v>2024</v>
@@ -1362,19 +1374,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1382,19 +1394,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F16">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1405,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>22</v>
@@ -1425,16 +1437,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E18">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F18">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1454,7 +1466,7 @@
         <v>2013</v>
       </c>
       <c r="F19">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1462,19 +1474,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="F20">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,13 +1497,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E21">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="F21">
         <v>2024</v>
@@ -1505,7 +1517,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -1522,16 +1534,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="F23">
         <v>2024</v>
@@ -1542,16 +1554,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="F24">
         <v>2024</v>
@@ -1562,13 +1574,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>2013</v>
@@ -1582,13 +1594,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>2013</v>
@@ -1602,16 +1614,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E27">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F27">
         <v>2024</v>
@@ -1625,7 +1637,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
@@ -1645,16 +1657,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E29">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F29">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1662,16 +1674,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F30">
         <v>2024</v>
@@ -1682,19 +1694,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>2013</v>
       </c>
       <c r="F31">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1702,16 +1714,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F32">
         <v>2024</v>
@@ -1725,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -1745,16 +1757,16 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E34">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F34">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1762,16 +1774,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="F35">
         <v>2024</v>
@@ -1782,19 +1794,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="F36">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1805,7 +1817,7 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>33</v>
@@ -1822,7 +1834,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
@@ -1831,10 +1843,10 @@
         <v>33</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1842,19 +1854,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E39">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="F39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1862,16 +1874,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F40">
         <v>2023</v>
@@ -1885,7 +1897,7 @@
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>33</v>
@@ -1894,7 +1906,7 @@
         <v>2013</v>
       </c>
       <c r="F41">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1902,19 +1914,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>2013</v>
       </c>
       <c r="F42">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1922,19 +1934,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>2013</v>
       </c>
       <c r="F43">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1945,13 +1957,13 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E44">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F44">
         <v>2024</v>
@@ -1965,7 +1977,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>35</v>
@@ -1985,16 +1997,16 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E46">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F46">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2002,16 +2014,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="F47">
         <v>2024</v>
@@ -2022,19 +2034,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F48">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,13 +2054,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>2017</v>
@@ -2065,13 +2077,13 @@
         <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E50">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F50">
         <v>2024</v>
@@ -2085,7 +2097,7 @@
         <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>37</v>
@@ -2102,16 +2114,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F52">
         <v>2024</v>
@@ -2122,16 +2134,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="F53">
         <v>2024</v>
@@ -2145,13 +2157,13 @@
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E54">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F54">
         <v>2024</v>
@@ -2165,7 +2177,7 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
@@ -2185,16 +2197,16 @@
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E56">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F56">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2202,16 +2214,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="F57">
         <v>2024</v>
@@ -2222,19 +2234,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E58">
         <v>2013</v>
       </c>
       <c r="F58">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2242,16 +2254,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="F59">
         <v>2024</v>
@@ -2259,39 +2271,39 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F60">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E61">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="F61">
         <v>2024</v>
@@ -2302,16 +2314,16 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E62">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F62">
         <v>2024</v>
@@ -2322,13 +2334,13 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>2010</v>
@@ -2342,13 +2354,13 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E64">
         <v>2015</v>
@@ -2362,16 +2374,16 @@
         <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E65">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F65">
         <v>2024</v>
@@ -2382,16 +2394,16 @@
         <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E66">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F66">
         <v>2024</v>
@@ -2402,13 +2414,13 @@
         <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E67">
         <v>2015</v>
@@ -2422,16 +2434,16 @@
         <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F68">
         <v>2024</v>
@@ -2442,16 +2454,16 @@
         <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E69">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F69">
         <v>2024</v>
@@ -2462,13 +2474,13 @@
         <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E70">
         <v>2010</v>
@@ -2482,16 +2494,16 @@
         <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E71">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F71">
         <v>2024</v>
@@ -2502,16 +2514,16 @@
         <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F72">
         <v>2024</v>
@@ -2522,13 +2534,13 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E73">
         <v>2015</v>
@@ -2542,13 +2554,13 @@
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <v>2014</v>
@@ -2562,16 +2574,16 @@
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E75">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F75">
         <v>2024</v>
@@ -2582,16 +2594,16 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E76">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F76">
         <v>2024</v>
@@ -2602,13 +2614,13 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E77">
         <v>2010</v>
@@ -2622,13 +2634,13 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E78">
         <v>2010</v>
@@ -2642,16 +2654,16 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E79">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F79">
         <v>2024</v>
@@ -2662,16 +2674,16 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E80">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="F80">
         <v>2024</v>
@@ -2682,13 +2694,13 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E81">
         <v>2015</v>
@@ -2702,16 +2714,16 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E82">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F82">
         <v>2024</v>
@@ -2722,16 +2734,16 @@
         <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E83">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="F83">
         <v>2024</v>
@@ -2739,16 +2751,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E84">
         <v>2010</v>
@@ -2759,16 +2771,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E85">
         <v>2010</v>
@@ -2782,13 +2794,13 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E86">
         <v>2010</v>
@@ -2802,13 +2814,13 @@
         <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E87">
         <v>2010</v>
@@ -2822,16 +2834,16 @@
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E88">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F88">
         <v>2024</v>
@@ -2842,16 +2854,16 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E89">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F89">
         <v>2024</v>
@@ -2862,16 +2874,16 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E90">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F90">
         <v>2024</v>
@@ -2882,16 +2894,16 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E91">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F91">
         <v>2024</v>
@@ -2902,16 +2914,16 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E92">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="F92">
         <v>2024</v>
@@ -2922,13 +2934,13 @@
         <v>68</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E93">
         <v>2015</v>
@@ -2942,13 +2954,13 @@
         <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E94">
         <v>2010</v>
@@ -2962,16 +2974,16 @@
         <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E95">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F95">
         <v>2024</v>
@@ -2982,13 +2994,13 @@
         <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E96">
         <v>2010</v>
@@ -3002,16 +3014,16 @@
         <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E97">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F97">
         <v>2024</v>
@@ -3022,13 +3034,13 @@
         <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E98">
         <v>2010</v>
@@ -3039,19 +3051,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E99">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F99">
         <v>2024</v>
@@ -3059,19 +3071,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E100">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F100">
         <v>2024</v>
@@ -3082,13 +3094,13 @@
         <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E101">
         <v>2014</v>
@@ -3102,13 +3114,13 @@
         <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E102">
         <v>2014</v>
@@ -3122,13 +3134,13 @@
         <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E103">
         <v>2014</v>
@@ -3142,13 +3154,13 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E104">
         <v>2014</v>
@@ -3162,13 +3174,13 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E105">
         <v>2014</v>
@@ -3182,13 +3194,13 @@
         <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E106">
         <v>2014</v>
@@ -3202,13 +3214,13 @@
         <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E107">
         <v>2014</v>
@@ -3222,13 +3234,13 @@
         <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E108">
         <v>2014</v>
@@ -3242,13 +3254,13 @@
         <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E109">
         <v>2014</v>
@@ -3262,13 +3274,13 @@
         <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E110">
         <v>2014</v>
@@ -3282,16 +3294,16 @@
         <v>84</v>
       </c>
       <c r="B111" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E111">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F111">
         <v>2024</v>
@@ -3302,16 +3314,16 @@
         <v>84</v>
       </c>
       <c r="B112" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E112">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F112">
         <v>2024</v>
@@ -3322,16 +3334,16 @@
         <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E113">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F113">
         <v>2024</v>
@@ -3342,13 +3354,13 @@
         <v>84</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E114">
         <v>2010</v>
@@ -3362,16 +3374,16 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E115">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F115">
         <v>2024</v>
@@ -3382,19 +3394,19 @@
         <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E116">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F116">
-        <v>2014</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3402,13 +3414,13 @@
         <v>84</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E117">
         <v>2010</v>
@@ -3422,19 +3434,19 @@
         <v>84</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E118">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F118">
-        <v>2024</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E119">
         <v>2010</v>
@@ -3462,16 +3474,16 @@
         <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E120">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="F120">
         <v>2024</v>
@@ -3482,13 +3494,13 @@
         <v>84</v>
       </c>
       <c r="B121" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E121">
         <v>2010</v>
@@ -3502,13 +3514,13 @@
         <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E122">
         <v>2010</v>
@@ -3522,16 +3534,16 @@
         <v>84</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E123">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F123">
         <v>2024</v>
@@ -3542,13 +3554,13 @@
         <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E124">
         <v>2010</v>
@@ -3562,19 +3574,19 @@
         <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E125">
         <v>2014</v>
       </c>
       <c r="F125">
-        <v>2015</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3582,13 +3594,13 @@
         <v>84</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E126">
         <v>2010</v>
@@ -3602,19 +3614,19 @@
         <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F127">
-        <v>2024</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3622,13 +3634,13 @@
         <v>84</v>
       </c>
       <c r="B128" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E128">
         <v>2010</v>
@@ -3642,13 +3654,13 @@
         <v>84</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E129">
         <v>2010</v>
@@ -3662,13 +3674,13 @@
         <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E130">
         <v>2010</v>
@@ -3682,16 +3694,16 @@
         <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F131">
         <v>2024</v>
@@ -3702,13 +3714,13 @@
         <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E132">
         <v>2010</v>
@@ -3719,19 +3731,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E133">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F133">
         <v>2024</v>
@@ -3739,16 +3751,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E134">
         <v>2010</v>
@@ -3762,13 +3774,13 @@
         <v>119</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C135" t="s">
         <v>102</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E135">
         <v>2010</v>
@@ -3782,16 +3794,16 @@
         <v>119</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F136">
         <v>2024</v>
@@ -3802,13 +3814,13 @@
         <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C137" t="s">
         <v>102</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E137">
         <v>2010</v>
@@ -3822,16 +3834,16 @@
         <v>119</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E138">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F138">
         <v>2024</v>
@@ -3842,13 +3854,13 @@
         <v>119</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
         <v>102</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E139">
         <v>2010</v>
@@ -3862,16 +3874,16 @@
         <v>119</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E140">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F140">
         <v>2024</v>
@@ -3882,13 +3894,13 @@
         <v>119</v>
       </c>
       <c r="B141" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
         <v>102</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E141">
         <v>2010</v>
@@ -3902,13 +3914,13 @@
         <v>119</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E142">
         <v>2010</v>
@@ -3922,13 +3934,13 @@
         <v>119</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E143">
         <v>2010</v>
@@ -3942,13 +3954,13 @@
         <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E144">
         <v>2010</v>
@@ -3962,13 +3974,13 @@
         <v>119</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C145" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E145">
         <v>2010</v>
@@ -3982,19 +3994,19 @@
         <v>119</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C146" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E146">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F146">
-        <v>2015</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4002,13 +4014,13 @@
         <v>119</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C147" t="s">
         <v>102</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E147">
         <v>2010</v>
@@ -4022,19 +4034,19 @@
         <v>119</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E148">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F148">
-        <v>2024</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4042,19 +4054,19 @@
         <v>119</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E149">
         <v>2010</v>
       </c>
       <c r="F149">
-        <v>2010</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4062,16 +4074,16 @@
         <v>119</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E150">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F150">
         <v>2024</v>
@@ -4082,19 +4094,19 @@
         <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C151" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E151">
         <v>2010</v>
       </c>
       <c r="F151">
-        <v>2024</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4102,16 +4114,16 @@
         <v>119</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C152" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E152">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F152">
         <v>2024</v>
@@ -4122,13 +4134,13 @@
         <v>119</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E153">
         <v>2010</v>
@@ -4142,13 +4154,13 @@
         <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C154" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E154">
         <v>2010</v>
@@ -4162,13 +4174,13 @@
         <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C155" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E155">
         <v>2010</v>
@@ -4182,16 +4194,16 @@
         <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E156">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F156">
         <v>2024</v>
@@ -4202,13 +4214,13 @@
         <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C157" t="s">
         <v>102</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E157">
         <v>2010</v>
@@ -4222,16 +4234,16 @@
         <v>119</v>
       </c>
       <c r="B158" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F158">
         <v>2024</v>
@@ -4242,16 +4254,16 @@
         <v>119</v>
       </c>
       <c r="B159" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E159">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F159">
         <v>2024</v>
@@ -4262,19 +4274,19 @@
         <v>119</v>
       </c>
       <c r="B160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C160" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E160">
         <v>2010</v>
       </c>
       <c r="F160">
-        <v>2014</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4282,16 +4294,16 @@
         <v>119</v>
       </c>
       <c r="B161" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E161">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F161">
         <v>2024</v>
@@ -4302,19 +4314,19 @@
         <v>119</v>
       </c>
       <c r="B162" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E162">
+        <v>2010</v>
+      </c>
+      <c r="F162">
         <v>2014</v>
-      </c>
-      <c r="F162">
-        <v>2024</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4322,13 +4334,13 @@
         <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C163" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E163">
         <v>2010</v>
@@ -4339,42 +4351,42 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B164" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C164" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E164">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F164">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E165">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F165">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4382,16 +4394,16 @@
         <v>146</v>
       </c>
       <c r="B166" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E166">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F166">
         <v>2023</v>
@@ -4402,19 +4414,19 @@
         <v>146</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C167" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E167">
         <v>2018</v>
       </c>
       <c r="F167">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4422,19 +4434,19 @@
         <v>146</v>
       </c>
       <c r="B168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C168" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E168">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F168">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4445,7 +4457,7 @@
         <v>152</v>
       </c>
       <c r="C169" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>152</v>
@@ -4465,13 +4477,13 @@
         <v>152</v>
       </c>
       <c r="C170" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E170">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F170">
         <v>2024</v>
@@ -4482,13 +4494,13 @@
         <v>146</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C171" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E171">
         <v>2018</v>
@@ -4502,13 +4514,13 @@
         <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C172" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E172">
         <v>2018</v>
@@ -4525,7 +4537,7 @@
         <v>154</v>
       </c>
       <c r="C173" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>154</v>
@@ -4545,7 +4557,7 @@
         <v>154</v>
       </c>
       <c r="C174" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>154</v>
@@ -4562,13 +4574,13 @@
         <v>146</v>
       </c>
       <c r="B175" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C175" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E175">
         <v>2018</v>
@@ -4582,13 +4594,13 @@
         <v>146</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E176">
         <v>2018</v>
@@ -4605,7 +4617,7 @@
         <v>155</v>
       </c>
       <c r="C177" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>155</v>
@@ -4625,7 +4637,7 @@
         <v>155</v>
       </c>
       <c r="C178" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>155</v>
@@ -4642,19 +4654,19 @@
         <v>146</v>
       </c>
       <c r="B179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E179">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F179">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4662,19 +4674,19 @@
         <v>146</v>
       </c>
       <c r="B180" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C180" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E180">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F180">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4682,19 +4694,19 @@
         <v>146</v>
       </c>
       <c r="B181" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C181" t="s">
         <v>148</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E181">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F181">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4702,19 +4714,19 @@
         <v>146</v>
       </c>
       <c r="B182" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C182" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E182">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F182">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4725,7 +4737,7 @@
         <v>158</v>
       </c>
       <c r="C183" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>158</v>
@@ -4745,7 +4757,7 @@
         <v>158</v>
       </c>
       <c r="C184" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>158</v>
@@ -4762,13 +4774,13 @@
         <v>146</v>
       </c>
       <c r="B185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C185" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E185">
         <v>2018</v>
@@ -4782,13 +4794,13 @@
         <v>146</v>
       </c>
       <c r="B186" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C186" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E186">
         <v>2018</v>
@@ -4805,7 +4817,7 @@
         <v>159</v>
       </c>
       <c r="C187" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>159</v>
@@ -4825,13 +4837,13 @@
         <v>159</v>
       </c>
       <c r="C188" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E188">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F188">
         <v>2024</v>
@@ -4845,7 +4857,7 @@
         <v>159</v>
       </c>
       <c r="C189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>159</v>
@@ -4862,16 +4874,16 @@
         <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C190" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E190">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F190">
         <v>2024</v>
@@ -4882,16 +4894,16 @@
         <v>146</v>
       </c>
       <c r="B191" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C191" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E191">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F191">
         <v>2024</v>
@@ -4905,13 +4917,13 @@
         <v>161</v>
       </c>
       <c r="C192" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E192">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F192">
         <v>2024</v>
@@ -4925,13 +4937,13 @@
         <v>161</v>
       </c>
       <c r="C193" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E193">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F193">
         <v>2024</v>
@@ -4942,16 +4954,16 @@
         <v>146</v>
       </c>
       <c r="B194" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C194" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E194">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F194">
         <v>2024</v>
@@ -4962,16 +4974,16 @@
         <v>146</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C195" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E195">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F195">
         <v>2024</v>
@@ -4982,19 +4994,19 @@
         <v>146</v>
       </c>
       <c r="B196" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C196" t="s">
         <v>148</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E196">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="F196">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,19 +5014,19 @@
         <v>146</v>
       </c>
       <c r="B197" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C197" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E197">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F197">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5022,19 +5034,19 @@
         <v>146</v>
       </c>
       <c r="B198" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C198" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E198">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F198">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -5045,7 +5057,7 @@
         <v>164</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>164</v>
@@ -5054,7 +5066,7 @@
         <v>2018</v>
       </c>
       <c r="F199">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5065,7 +5077,7 @@
         <v>164</v>
       </c>
       <c r="C200" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>164</v>
@@ -5074,7 +5086,7 @@
         <v>2018</v>
       </c>
       <c r="F200">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -5082,19 +5094,19 @@
         <v>146</v>
       </c>
       <c r="B201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C201" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E201">
         <v>2018</v>
       </c>
       <c r="F201">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -5102,19 +5114,19 @@
         <v>146</v>
       </c>
       <c r="B202" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C202" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E202">
         <v>2018</v>
       </c>
       <c r="F202">
-        <v>2024</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5125,7 +5137,7 @@
         <v>165</v>
       </c>
       <c r="C203" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>165</v>
@@ -5145,7 +5157,7 @@
         <v>165</v>
       </c>
       <c r="C204" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>165</v>
@@ -5162,13 +5174,13 @@
         <v>146</v>
       </c>
       <c r="B205" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C205" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E205">
         <v>2018</v>
@@ -5182,13 +5194,13 @@
         <v>146</v>
       </c>
       <c r="B206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C206" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E206">
         <v>2018</v>
@@ -5205,7 +5217,7 @@
         <v>166</v>
       </c>
       <c r="C207" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>166</v>
@@ -5225,7 +5237,7 @@
         <v>166</v>
       </c>
       <c r="C208" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>166</v>
@@ -5242,13 +5254,13 @@
         <v>146</v>
       </c>
       <c r="B209" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C209" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E209">
         <v>2018</v>
@@ -5262,13 +5274,13 @@
         <v>146</v>
       </c>
       <c r="B210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C210" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E210">
         <v>2018</v>
@@ -5285,7 +5297,7 @@
         <v>167</v>
       </c>
       <c r="C211" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>167</v>
@@ -5305,7 +5317,7 @@
         <v>167</v>
       </c>
       <c r="C212" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>167</v>
@@ -5322,19 +5334,19 @@
         <v>146</v>
       </c>
       <c r="B213" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C213" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E213">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F213">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5342,19 +5354,19 @@
         <v>146</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C214" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E214">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F214">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5362,19 +5374,19 @@
         <v>146</v>
       </c>
       <c r="B215" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C215" t="s">
         <v>148</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E215">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F215">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5382,19 +5394,19 @@
         <v>146</v>
       </c>
       <c r="B216" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C216" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E216">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F216">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5405,7 +5417,7 @@
         <v>170</v>
       </c>
       <c r="C217" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>170</v>
@@ -5425,7 +5437,7 @@
         <v>170</v>
       </c>
       <c r="C218" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>170</v>
@@ -5442,13 +5454,13 @@
         <v>146</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C219" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E219">
         <v>2018</v>
@@ -5462,13 +5474,13 @@
         <v>146</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C220" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E220">
         <v>2018</v>
@@ -5485,7 +5497,7 @@
         <v>171</v>
       </c>
       <c r="C221" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>171</v>
@@ -5505,13 +5517,13 @@
         <v>171</v>
       </c>
       <c r="C222" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E222">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F222">
         <v>2024</v>
@@ -5525,7 +5537,7 @@
         <v>171</v>
       </c>
       <c r="C223" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>171</v>
@@ -5542,16 +5554,16 @@
         <v>146</v>
       </c>
       <c r="B224" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C224" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E224">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F224">
         <v>2024</v>
@@ -5562,16 +5574,16 @@
         <v>146</v>
       </c>
       <c r="B225" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C225" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E225">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F225">
         <v>2024</v>
@@ -5585,13 +5597,13 @@
         <v>172</v>
       </c>
       <c r="C226" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F226">
         <v>2024</v>
@@ -5605,13 +5617,13 @@
         <v>172</v>
       </c>
       <c r="C227" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E227">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F227">
         <v>2024</v>
@@ -5622,16 +5634,16 @@
         <v>146</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C228" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E228">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F228">
         <v>2024</v>
@@ -5642,16 +5654,16 @@
         <v>146</v>
       </c>
       <c r="B229" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C229" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E229">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F229">
         <v>2024</v>
@@ -5662,19 +5674,19 @@
         <v>146</v>
       </c>
       <c r="B230" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C230" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E230">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F230">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5682,19 +5694,19 @@
         <v>146</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C231" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E231">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F231">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5702,19 +5714,19 @@
         <v>146</v>
       </c>
       <c r="B232" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C232" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E232">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F232">
-        <v>2023</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5725,13 +5737,13 @@
         <v>175</v>
       </c>
       <c r="C233" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E233">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F233">
         <v>2023</v>
@@ -5745,13 +5757,13 @@
         <v>175</v>
       </c>
       <c r="C234" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E234">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F234">
         <v>2023</v>
@@ -5762,16 +5774,16 @@
         <v>146</v>
       </c>
       <c r="B235" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C235" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E235">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F235">
         <v>2023</v>
@@ -5782,16 +5794,16 @@
         <v>146</v>
       </c>
       <c r="B236" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C236" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E236">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F236">
         <v>2023</v>
@@ -5805,13 +5817,13 @@
         <v>176</v>
       </c>
       <c r="C237" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E237">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F237">
         <v>2023</v>
@@ -5825,13 +5837,13 @@
         <v>176</v>
       </c>
       <c r="C238" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E238">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F238">
         <v>2023</v>
@@ -5842,19 +5854,19 @@
         <v>146</v>
       </c>
       <c r="B239" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C239" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E239">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F239">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5862,16 +5874,16 @@
         <v>146</v>
       </c>
       <c r="B240" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C240" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E240">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="F240">
         <v>2023</v>
@@ -5885,16 +5897,16 @@
         <v>177</v>
       </c>
       <c r="C241" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E241">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F241">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5905,7 +5917,7 @@
         <v>177</v>
       </c>
       <c r="C242" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>177</v>
@@ -5922,16 +5934,16 @@
         <v>146</v>
       </c>
       <c r="B243" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C243" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E243">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F243">
         <v>2023</v>
@@ -5942,16 +5954,16 @@
         <v>146</v>
       </c>
       <c r="B244" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C244" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E244">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F244">
         <v>2023</v>
@@ -5965,7 +5977,7 @@
         <v>178</v>
       </c>
       <c r="C245" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>178</v>
@@ -5985,7 +5997,7 @@
         <v>178</v>
       </c>
       <c r="C246" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>178</v>
@@ -6002,16 +6014,16 @@
         <v>146</v>
       </c>
       <c r="B247" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C247" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E247">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F247">
         <v>2023</v>
@@ -6022,16 +6034,16 @@
         <v>146</v>
       </c>
       <c r="B248" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C248" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E248">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F248">
         <v>2023</v>
@@ -6045,7 +6057,7 @@
         <v>179</v>
       </c>
       <c r="C249" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>179</v>
@@ -6065,7 +6077,7 @@
         <v>179</v>
       </c>
       <c r="C250" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>179</v>
@@ -6082,13 +6094,13 @@
         <v>146</v>
       </c>
       <c r="B251" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C251" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E251">
         <v>2021</v>
@@ -6102,13 +6114,13 @@
         <v>146</v>
       </c>
       <c r="B252" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C252" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E252">
         <v>2021</v>
@@ -6125,7 +6137,7 @@
         <v>180</v>
       </c>
       <c r="C253" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>180</v>
@@ -6145,13 +6157,13 @@
         <v>180</v>
       </c>
       <c r="C254" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E254">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F254">
         <v>2023</v>
@@ -6162,19 +6174,19 @@
         <v>146</v>
       </c>
       <c r="B255" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C255" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E255">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="F255">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6182,19 +6194,19 @@
         <v>146</v>
       </c>
       <c r="B256" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C256" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E256">
         <v>2023</v>
       </c>
       <c r="F256">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -6202,19 +6214,19 @@
         <v>146</v>
       </c>
       <c r="B257" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C257" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E257">
         <v>2010</v>
       </c>
       <c r="F257">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -6222,16 +6234,16 @@
         <v>146</v>
       </c>
       <c r="B258" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C258" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E258">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="F258">
         <v>2024</v>
@@ -6242,19 +6254,19 @@
         <v>146</v>
       </c>
       <c r="B259" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C259" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E259">
         <v>2010</v>
       </c>
       <c r="F259">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6262,19 +6274,19 @@
         <v>146</v>
       </c>
       <c r="B260" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C260" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E260">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F260">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6282,16 +6294,16 @@
         <v>146</v>
       </c>
       <c r="B261" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C261" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E261">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="F261">
         <v>2024</v>
@@ -6302,19 +6314,19 @@
         <v>146</v>
       </c>
       <c r="B262" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C262" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E262">
         <v>2013</v>
       </c>
       <c r="F262">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6322,16 +6334,16 @@
         <v>146</v>
       </c>
       <c r="B263" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E263">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="F263">
         <v>2024</v>
@@ -6342,16 +6354,16 @@
         <v>146</v>
       </c>
       <c r="B264" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E264">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F264">
         <v>2024</v>
@@ -6362,13 +6374,13 @@
         <v>146</v>
       </c>
       <c r="B265" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C265" t="s">
         <v>30</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E265">
         <v>2010</v>
@@ -6382,16 +6394,16 @@
         <v>146</v>
       </c>
       <c r="B266" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C266" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E266">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="F266">
         <v>2024</v>
@@ -6402,36 +6414,36 @@
         <v>146</v>
       </c>
       <c r="B267" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C267" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E267">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F267">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B268" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C268" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E268">
-        <v>2010</v>
+        <v>2023</v>
       </c>
       <c r="F268">
         <v>2024</v>
@@ -6439,22 +6451,22 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="B269" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E269">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F269">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -6462,13 +6474,13 @@
         <v>200</v>
       </c>
       <c r="B270" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E270">
         <v>2010</v>
@@ -6482,13 +6494,13 @@
         <v>200</v>
       </c>
       <c r="B271" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E271">
         <v>2010</v>
@@ -6502,18 +6514,58 @@
         <v>200</v>
       </c>
       <c r="B272" t="s">
+        <v>203</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E272">
+        <v>2010</v>
+      </c>
+      <c r="F272">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>200</v>
+      </c>
+      <c r="B273" t="s">
+        <v>204</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E273">
+        <v>2010</v>
+      </c>
+      <c r="F273">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>200</v>
+      </c>
+      <c r="B274" t="s">
         <v>205</v>
       </c>
-      <c r="C272" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="1" t="s">
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E272">
+      <c r="E274">
         <v>2014</v>
       </c>
-      <c r="F272">
+      <c r="F274">
         <v>2024</v>
       </c>
     </row>
